--- a/public/wjdc.xlsx
+++ b/public/wjdc.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="20">
   <si>
     <t>姓名</t>
   </si>
@@ -33,6 +33,48 @@
   </si>
   <si>
     <t>调查问卷</t>
+  </si>
+  <si>
+    <t>量表1</t>
+  </si>
+  <si>
+    <t>问题1</t>
+  </si>
+  <si>
+    <t>得分</t>
+  </si>
+  <si>
+    <t>问题2</t>
+  </si>
+  <si>
+    <t>问题3</t>
+  </si>
+  <si>
+    <t>量表2</t>
+  </si>
+  <si>
+    <t>段</t>
+  </si>
+  <si>
+    <t>2014-01-01</t>
+  </si>
+  <si>
+    <t>睡眠质量问卷调查</t>
+  </si>
+  <si>
+    <t>匹兹堡睡眠质量指数（PSQI）</t>
+  </si>
+  <si>
+    <t>近1个月，通常几点钟上床睡觉？（24小时制）</t>
+  </si>
+  <si>
+    <t>近1个月，从上床到入睡通常需要多少分钟？</t>
+  </si>
+  <si>
+    <t>失眠时都在做什么</t>
+  </si>
+  <si>
+    <t>失眠严重程度指数量表</t>
   </si>
 </sst>
 </file>
@@ -372,7 +414,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:N13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -380,7 +422,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:14">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -398,6 +440,486 @@
       </c>
       <c r="F1" t="s">
         <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" t="s">
+        <v>8</v>
+      </c>
+      <c r="N1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
+      <c r="A2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2">
+        <v>1234</v>
+      </c>
+      <c r="D2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2">
+        <v>123123123</v>
+      </c>
+      <c r="F2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2">
+        <v>1</v>
+      </c>
+      <c r="J2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K2">
+        <v>3</v>
+      </c>
+      <c r="L2" t="s">
+        <v>18</v>
+      </c>
+      <c r="N2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
+      <c r="A3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3">
+        <v>1234</v>
+      </c>
+      <c r="D3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3">
+        <v>123123123</v>
+      </c>
+      <c r="F3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I3">
+        <v>1</v>
+      </c>
+      <c r="J3" t="s">
+        <v>17</v>
+      </c>
+      <c r="K3">
+        <v>3</v>
+      </c>
+      <c r="L3" t="s">
+        <v>18</v>
+      </c>
+      <c r="N3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4">
+        <v>1234</v>
+      </c>
+      <c r="D4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4">
+        <v>123123123</v>
+      </c>
+      <c r="F4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+      <c r="J4" t="s">
+        <v>17</v>
+      </c>
+      <c r="K4">
+        <v>3</v>
+      </c>
+      <c r="L4" t="s">
+        <v>18</v>
+      </c>
+      <c r="N4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5">
+        <v>1234</v>
+      </c>
+      <c r="D5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5">
+        <v>123123123</v>
+      </c>
+      <c r="F5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H5" t="s">
+        <v>16</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+      <c r="J5" t="s">
+        <v>17</v>
+      </c>
+      <c r="K5">
+        <v>3</v>
+      </c>
+      <c r="L5" t="s">
+        <v>18</v>
+      </c>
+      <c r="N5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="A6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6">
+        <v>1234</v>
+      </c>
+      <c r="D6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6">
+        <v>123123123</v>
+      </c>
+      <c r="F6" t="s">
+        <v>14</v>
+      </c>
+      <c r="G6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
+      <c r="J6" t="s">
+        <v>17</v>
+      </c>
+      <c r="K6">
+        <v>3</v>
+      </c>
+      <c r="L6" t="s">
+        <v>18</v>
+      </c>
+      <c r="N6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7">
+        <v>1234</v>
+      </c>
+      <c r="D7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7">
+        <v>123123123</v>
+      </c>
+      <c r="F7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H7" t="s">
+        <v>16</v>
+      </c>
+      <c r="I7">
+        <v>1</v>
+      </c>
+      <c r="J7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7" t="s">
+        <v>18</v>
+      </c>
+      <c r="N7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
+      <c r="A8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8">
+        <v>1234</v>
+      </c>
+      <c r="D8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8">
+        <v>123123123</v>
+      </c>
+      <c r="F8" t="s">
+        <v>14</v>
+      </c>
+      <c r="G8" t="s">
+        <v>15</v>
+      </c>
+      <c r="H8" t="s">
+        <v>16</v>
+      </c>
+      <c r="I8">
+        <v>1</v>
+      </c>
+      <c r="J8" t="s">
+        <v>17</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8" t="s">
+        <v>18</v>
+      </c>
+      <c r="N8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
+      <c r="A9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9">
+        <v>1234</v>
+      </c>
+      <c r="D9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9">
+        <v>123123123</v>
+      </c>
+      <c r="F9" t="s">
+        <v>14</v>
+      </c>
+      <c r="G9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H9" t="s">
+        <v>16</v>
+      </c>
+      <c r="I9">
+        <v>1</v>
+      </c>
+      <c r="J9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9" t="s">
+        <v>18</v>
+      </c>
+      <c r="N9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
+      <c r="A10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10">
+        <v>1234</v>
+      </c>
+      <c r="D10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10">
+        <v>123123123</v>
+      </c>
+      <c r="F10" t="s">
+        <v>14</v>
+      </c>
+      <c r="G10" t="s">
+        <v>15</v>
+      </c>
+      <c r="H10" t="s">
+        <v>16</v>
+      </c>
+      <c r="I10">
+        <v>1</v>
+      </c>
+      <c r="J10" t="s">
+        <v>17</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10" t="s">
+        <v>18</v>
+      </c>
+      <c r="N10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
+      <c r="A11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11">
+        <v>1234</v>
+      </c>
+      <c r="D11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11">
+        <v>123123123</v>
+      </c>
+      <c r="F11" t="s">
+        <v>14</v>
+      </c>
+      <c r="G11" t="s">
+        <v>15</v>
+      </c>
+      <c r="H11" t="s">
+        <v>16</v>
+      </c>
+      <c r="I11">
+        <v>1</v>
+      </c>
+      <c r="J11" t="s">
+        <v>17</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11" t="s">
+        <v>18</v>
+      </c>
+      <c r="N11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
+      <c r="A12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12">
+        <v>1234</v>
+      </c>
+      <c r="D12" t="s">
+        <v>13</v>
+      </c>
+      <c r="E12">
+        <v>123123123</v>
+      </c>
+      <c r="F12" t="s">
+        <v>14</v>
+      </c>
+      <c r="G12" t="s">
+        <v>15</v>
+      </c>
+      <c r="H12" t="s">
+        <v>16</v>
+      </c>
+      <c r="I12">
+        <v>1</v>
+      </c>
+      <c r="J12" t="s">
+        <v>17</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12" t="s">
+        <v>18</v>
+      </c>
+      <c r="N12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>1234</v>
+      </c>
+      <c r="D13" t="s">
+        <v>13</v>
+      </c>
+      <c r="E13">
+        <v>123123123</v>
+      </c>
+      <c r="F13" t="s">
+        <v>14</v>
+      </c>
+      <c r="G13" t="s">
+        <v>15</v>
+      </c>
+      <c r="H13" t="s">
+        <v>16</v>
+      </c>
+      <c r="I13">
+        <v>1</v>
+      </c>
+      <c r="J13" t="s">
+        <v>17</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13" t="s">
+        <v>18</v>
+      </c>
+      <c r="N13" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/public/wjdc.xlsx
+++ b/public/wjdc.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="28">
   <si>
     <t>姓名</t>
   </si>
@@ -53,31 +53,52 @@
     <t>问题4</t>
   </si>
   <si>
-    <t>李四</t>
-  </si>
-  <si>
-    <t>2015-07-22</t>
-  </si>
-  <si>
-    <t>销售</t>
-  </si>
-  <si>
-    <t>测试问卷</t>
-  </si>
-  <si>
-    <t>测试量表</t>
-  </si>
-  <si>
-    <t>测试题1</t>
-  </si>
-  <si>
-    <t>测试多选题</t>
-  </si>
-  <si>
-    <t>问答题</t>
-  </si>
-  <si>
-    <t>测试题</t>
+    <t>问题5</t>
+  </si>
+  <si>
+    <t>问题6</t>
+  </si>
+  <si>
+    <t>毛毛虫</t>
+  </si>
+  <si>
+    <t>2024-07-23</t>
+  </si>
+  <si>
+    <t>五部门</t>
+  </si>
+  <si>
+    <t>毛毛虫问卷调查1</t>
+  </si>
+  <si>
+    <t>失眠严重程度指数量表 ISI</t>
+  </si>
+  <si>
+    <t>描述您最近（例如：最近2周）失眠问题的严重程度：入睡困难</t>
+  </si>
+  <si>
+    <t>2.描述您最近（例如：最近2周）失眠问题的严重程度：维持睡眠困难</t>
+  </si>
+  <si>
+    <t>3.描述您最近（例如：最近2周）失眠问题的严重程度：早醒</t>
+  </si>
+  <si>
+    <t>4.对您当前睡眠模式的满意度：</t>
+  </si>
+  <si>
+    <t>6.与其他人相比，您的失眠问题对您的生活质量有多大程度的影响或损害？</t>
+  </si>
+  <si>
+    <t>7.您对自己当前睡眠问题有多大程度的担忧/沮丧？</t>
+  </si>
+  <si>
+    <t>毛毛虫2</t>
+  </si>
+  <si>
+    <t>2016-10-23</t>
+  </si>
+  <si>
+    <t>政治部</t>
   </si>
 </sst>
 </file>
@@ -417,15 +438,36 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:O2"/>
+  <dimension ref="A1:S3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col min="1" max="1" width="9.283" bestFit="true" customWidth="true" style="0"/>
+    <col min="2" max="2" width="5.856" bestFit="true" customWidth="true" style="0"/>
+    <col min="3" max="3" width="5.856" bestFit="true" customWidth="true" style="0"/>
+    <col min="4" max="4" width="12.854" bestFit="true" customWidth="true" style="0"/>
+    <col min="5" max="5" width="8.141" bestFit="true" customWidth="true" style="0"/>
+    <col min="6" max="6" width="18.71" bestFit="true" customWidth="true" style="0"/>
+    <col min="7" max="7" width="29.421" bestFit="true" customWidth="true" style="0"/>
+    <col min="8" max="8" width="65.984" bestFit="true" customWidth="true" style="0"/>
+    <col min="9" max="9" width="5.856" bestFit="true" customWidth="true" style="0"/>
+    <col min="10" max="10" width="72.982" bestFit="true" customWidth="true" style="0"/>
+    <col min="11" max="11" width="5.856" bestFit="true" customWidth="true" style="0"/>
+    <col min="12" max="12" width="63.556" bestFit="true" customWidth="true" style="0"/>
+    <col min="13" max="13" width="5.856" bestFit="true" customWidth="true" style="0"/>
+    <col min="14" max="14" width="34.135" bestFit="true" customWidth="true" style="0"/>
+    <col min="15" max="15" width="5.856" bestFit="true" customWidth="true" style="0"/>
+    <col min="16" max="16" width="78.981" bestFit="true" customWidth="true" style="0"/>
+    <col min="17" max="17" width="5.856" bestFit="true" customWidth="true" style="0"/>
+    <col min="18" max="18" width="54.13" bestFit="true" customWidth="true" style="0"/>
+    <col min="19" max="19" width="5.856" bestFit="true" customWidth="true" style="0"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:19">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -471,49 +513,135 @@
       <c r="O1" t="s">
         <v>8</v>
       </c>
+      <c r="P1" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>8</v>
+      </c>
+      <c r="R1" t="s">
+        <v>13</v>
+      </c>
+      <c r="S1" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:19">
       <c r="A2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B2">
-        <v>2136496764</v>
+        <v>123</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="H2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I2">
+        <v>1</v>
+      </c>
+      <c r="J2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K2">
+        <v>1</v>
+      </c>
+      <c r="L2" t="s">
+        <v>21</v>
+      </c>
+      <c r="M2">
+        <v>1</v>
+      </c>
+      <c r="N2" t="s">
+        <v>22</v>
+      </c>
+      <c r="O2">
+        <v>1</v>
+      </c>
+      <c r="P2" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q2">
+        <v>1</v>
+      </c>
+      <c r="R2" t="s">
+        <v>24</v>
+      </c>
+      <c r="S2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
+      <c r="A3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3">
+        <v>11</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F3" t="s">
         <v>17</v>
       </c>
-      <c r="I2">
+      <c r="G3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I3">
         <v>2</v>
       </c>
-      <c r="J2" t="s">
-        <v>18</v>
-      </c>
-      <c r="K2">
+      <c r="J3" t="s">
         <v>20</v>
       </c>
-      <c r="L2" t="s">
-        <v>19</v>
-      </c>
-      <c r="N2" t="s">
-        <v>20</v>
-      </c>
-      <c r="O2">
+      <c r="K3">
         <v>3</v>
+      </c>
+      <c r="L3" t="s">
+        <v>21</v>
+      </c>
+      <c r="M3">
+        <v>2</v>
+      </c>
+      <c r="N3" t="s">
+        <v>22</v>
+      </c>
+      <c r="O3">
+        <v>3</v>
+      </c>
+      <c r="P3" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q3">
+        <v>2</v>
+      </c>
+      <c r="R3" t="s">
+        <v>24</v>
+      </c>
+      <c r="S3">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/public/wjdc.xlsx
+++ b/public/wjdc.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="33">
   <si>
     <t>姓名</t>
   </si>
@@ -62,6 +62,9 @@
     <t>毛毛虫</t>
   </si>
   <si>
+    <t>女</t>
+  </si>
+  <si>
     <t>2024-07-23</t>
   </si>
   <si>
@@ -95,10 +98,22 @@
     <t>毛毛虫2</t>
   </si>
   <si>
+    <t>男</t>
+  </si>
+  <si>
     <t>2016-10-23</t>
   </si>
   <si>
     <t>政治部</t>
+  </si>
+  <si>
+    <t>毛毛虫3</t>
+  </si>
+  <si>
+    <t>2010-10-23</t>
+  </si>
+  <si>
+    <t>呜呜</t>
   </si>
 </sst>
 </file>
@@ -438,7 +453,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:S3"/>
+  <dimension ref="A1:S4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -533,53 +548,53 @@
       <c r="B2">
         <v>123</v>
       </c>
-      <c r="C2">
-        <v>2</v>
+      <c r="C2" t="s">
+        <v>15</v>
       </c>
       <c r="D2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I2">
         <v>1</v>
       </c>
       <c r="J2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K2">
         <v>1</v>
       </c>
       <c r="L2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M2">
         <v>1</v>
       </c>
       <c r="N2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="O2">
         <v>1</v>
       </c>
       <c r="P2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="Q2">
         <v>1</v>
       </c>
       <c r="R2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="S2">
         <v>1</v>
@@ -587,60 +602,119 @@
     </row>
     <row r="3" spans="1:19">
       <c r="A3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B3">
         <v>11</v>
       </c>
-      <c r="C3">
-        <v>1</v>
+      <c r="C3" t="s">
+        <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E3" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I3">
         <v>2</v>
       </c>
       <c r="J3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K3">
         <v>3</v>
       </c>
       <c r="L3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M3">
         <v>2</v>
       </c>
       <c r="N3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="O3">
         <v>3</v>
       </c>
       <c r="P3" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q3">
+        <v>2</v>
+      </c>
+      <c r="R3" t="s">
+        <v>25</v>
+      </c>
+      <c r="S3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
+      <c r="A4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4">
+        <v>112</v>
+      </c>
+      <c r="C4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I4">
+        <v>3</v>
+      </c>
+      <c r="J4" t="s">
+        <v>21</v>
+      </c>
+      <c r="K4">
+        <v>2</v>
+      </c>
+      <c r="L4" t="s">
+        <v>22</v>
+      </c>
+      <c r="M4">
+        <v>1</v>
+      </c>
+      <c r="N4" t="s">
         <v>23</v>
       </c>
-      <c r="Q3">
-        <v>2</v>
-      </c>
-      <c r="R3" t="s">
+      <c r="O4">
+        <v>2</v>
+      </c>
+      <c r="P4" t="s">
         <v>24</v>
       </c>
-      <c r="S3">
+      <c r="Q4">
+        <v>2</v>
+      </c>
+      <c r="R4" t="s">
+        <v>25</v>
+      </c>
+      <c r="S4">
         <v>2</v>
       </c>
     </row>
